--- a/Biden/2022-11-07/compare5.xlsx
+++ b/Biden/2022-11-07/compare5.xlsx
@@ -1,37 +1,264 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Threshold=5" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Threshold=5" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Original retweet count</t>
+  </si>
+  <si>
+    <t>After filtering</t>
+  </si>
+  <si>
+    <t>Ratio of after/total</t>
+  </si>
+  <si>
+    <t>1586798846709227521</t>
+  </si>
+  <si>
+    <t>1586787521920483331</t>
+  </si>
+  <si>
+    <t>1586773677869342724</t>
+  </si>
+  <si>
+    <t>1586719571574235144</t>
+  </si>
+  <si>
+    <t>1586511955572973568</t>
+  </si>
+  <si>
+    <t>1586499372648484864</t>
+  </si>
+  <si>
+    <t>1586484308809744386</t>
+  </si>
+  <si>
+    <t>1586442749687087108</t>
+  </si>
+  <si>
+    <t>1586422614943219713</t>
+  </si>
+  <si>
+    <t>1586410033016967169</t>
+  </si>
+  <si>
+    <t>1586398714398212097</t>
+  </si>
+  <si>
+    <t>1586389802559102977</t>
+  </si>
+  <si>
+    <t>1586153339640766464</t>
+  </si>
+  <si>
+    <t>1586130694203445249</t>
+  </si>
+  <si>
+    <t>1586115597699514369</t>
+  </si>
+  <si>
+    <t>1586100491393581056</t>
+  </si>
+  <si>
+    <t>1586085400690524163</t>
+  </si>
+  <si>
+    <t>1586069242864099331</t>
+  </si>
+  <si>
+    <t>1586040598343163910</t>
+  </si>
+  <si>
+    <t>1586024996413050882</t>
+  </si>
+  <si>
+    <t>1586019391040282624</t>
+  </si>
+  <si>
+    <t>1586009964983771137</t>
+  </si>
+  <si>
+    <t>1585996581156921346</t>
+  </si>
+  <si>
+    <t>1585996577855913986</t>
+  </si>
+  <si>
+    <t>1585981986967093255</t>
+  </si>
+  <si>
+    <t>1585810772520833025</t>
+  </si>
+  <si>
+    <t>1585791050379034624</t>
+  </si>
+  <si>
+    <t>1585770002468294657</t>
+  </si>
+  <si>
+    <t>1585756978445443072</t>
+  </si>
+  <si>
+    <t>1585749429134434304</t>
+  </si>
+  <si>
+    <t>1585728962516451330</t>
+  </si>
+  <si>
+    <t>1585697820610265104</t>
+  </si>
+  <si>
+    <t>1585677810961711104</t>
+  </si>
+  <si>
+    <t>1585655056438788099</t>
+  </si>
+  <si>
+    <t>1585643772926304257</t>
+  </si>
+  <si>
+    <t>1585631389151813637</t>
+  </si>
+  <si>
+    <t>1585631387301793793</t>
+  </si>
+  <si>
+    <t>1585631385674735618</t>
+  </si>
+  <si>
+    <t>1585631383871180801</t>
+  </si>
+  <si>
+    <t>1585619464686551042</t>
+  </si>
+  <si>
+    <t>1585405925682286592</t>
+  </si>
+  <si>
+    <t>1585390849696976896</t>
+  </si>
+  <si>
+    <t>1585382626398969858</t>
+  </si>
+  <si>
+    <t>1585345517063634947</t>
+  </si>
+  <si>
+    <t>1585332328657829899</t>
+  </si>
+  <si>
+    <t>1585311543859843073</t>
+  </si>
+  <si>
+    <t>1585295161483038723</t>
+  </si>
+  <si>
+    <t>1585290504887042048</t>
+  </si>
+  <si>
+    <t>1585062555965325312</t>
+  </si>
+  <si>
+    <t>1585044846338777089</t>
+  </si>
+  <si>
+    <t>1585029922149515264</t>
+  </si>
+  <si>
+    <t>1585010816218177550</t>
+  </si>
+  <si>
+    <t>1584978565233348613</t>
+  </si>
+  <si>
+    <t>1584970829929992194</t>
+  </si>
+  <si>
+    <t>1584952931882831872</t>
+  </si>
+  <si>
+    <t>1584945382013927426</t>
+  </si>
+  <si>
+    <t>1584931500700667906</t>
+  </si>
+  <si>
+    <t>1584898827269672962</t>
+  </si>
+  <si>
+    <t>1584893974975750146</t>
+  </si>
+  <si>
+    <t>1584723924830617603</t>
+  </si>
+  <si>
+    <t>1584717729113710597</t>
+  </si>
+  <si>
+    <t>1584663118130683904</t>
+  </si>
+  <si>
+    <t>1584657735718604800</t>
+  </si>
+  <si>
+    <t>1584645909345976326</t>
+  </si>
+  <si>
+    <t>1584635840818515974</t>
+  </si>
+  <si>
+    <t>1584620744624979969</t>
+  </si>
+  <si>
+    <t>1584613701176463382</t>
+  </si>
+  <si>
+    <t>1584602542239105025</t>
+  </si>
+  <si>
+    <t>1584333868878135296</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +273,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -420,1146 +589,994 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Original retweet count</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>After filtering</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Ratio of after/total</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1586798846709227521</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
         <v>4965</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>3365</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0.033</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>1586787521920483331</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
         <v>6651</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>3812</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>0.037</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>1586773677869342724</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
         <v>4572</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>2801</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>0.027</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>1586719571574235144</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
         <v>3800</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>2773</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>0.027</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>1586511955572973568</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
         <v>8575</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>4310</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>0.042</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>1586499372648484864</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
         <v>9194</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>4864</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>0.047</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>1586484308809744386</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
         <v>5848</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>2832</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>0.028</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>1586442749687087108</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
         <v>6585</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>4228</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>0.041</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>1586422614943219713</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
         <v>6486</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>3937</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>0.038</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>1586410033016967169</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
         <v>6180</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>3884</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>0.038</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>1586398714398212097</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
         <v>2573</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>1965</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>0.019</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>1586389802559102977</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
         <v>5013</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>3214</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>0.031</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>1586153339640766464</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
         <v>9899</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>5055</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>0.049</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>1586130694203445249</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
         <v>4070</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>3094</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>0.03</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>1586115597699514369</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
         <v>3979</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>2368</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>0.023</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>1586100491393581056</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
         <v>2614</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>2163</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>0.021</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>1586085400690524163</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
         <v>2360</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>1851</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>0.018</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>1586069242864099331</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
         <v>8278</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>4747</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>0.046</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>1586040598343163910</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
         <v>1936</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>1407</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>0.014</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>1586024996413050882</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
         <v>6654</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>4206</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>0.041</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>1586019391040282624</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
         <v>8103</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>2938</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>0.029</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>1586009964983771137</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
         <v>4017</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>2994</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>0.029</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>1585996581156921346</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
         <v>1036</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>811</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>0.008</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>1585996577855913986</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
         <v>2407</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>1986</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>0.019</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>1585981986967093255</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
         <v>1004</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>764</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>0.007</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>1585810772520833025</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
         <v>2354</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>1817</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>0.018</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>1585791050379034624</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
         <v>5164</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>3430</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>0.033</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>1585770002468294657</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
         <v>12867</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>5883</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>0.057</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>1585756978445443072</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
         <v>6132</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>4026</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>0.039</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>1585749429134434304</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
         <v>2870</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>1930</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>0.019</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>1585728962516451330</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32">
         <v>1003</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>788</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>0.008</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>1585697820610265104</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
         <v>921</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>713</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>0.007</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>1585677810961711104</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34">
         <v>4716</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>2690</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>0.026</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>1585655056438788099</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
         <v>3993</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>2781</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>0.027</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>1585643772926304257</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36">
         <v>1371</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>842</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>0.008</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>1585631389151813637</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37">
         <v>1540</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>1187</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>0.012</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>1585631387301793793</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38">
         <v>1477</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>1206</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>0.012</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>1585631385674735618</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39">
         <v>1497</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>1064</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>0.01</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>1585631383871180801</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40">
         <v>9049</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>5040</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>0.049</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>1585619464686551042</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41">
         <v>2696</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>2087</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>0.02</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>1585405925682286592</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42">
         <v>2487</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>1842</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>0.018</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>1585390849696976896</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43">
         <v>1516</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>1268</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>0.012</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>1585382626398969858</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44">
         <v>996</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>745</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>0.007</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>1585345517063634947</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45">
         <v>4998</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>3706</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>0.036</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>1585332328657829899</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46">
         <v>1091</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>817</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>0.008</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>1585311543859843073</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47">
         <v>9271</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>4153</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>0.04</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>1585295161483038723</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48">
         <v>8349</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>4294</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>0.042</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>1585290504887042048</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49">
         <v>1153</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>931</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>0.008999999999999999</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>1585062555965325312</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50">
         <v>7378</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>3089</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>0.03</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>1585044846338777089</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51">
         <v>4553</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>2978</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>0.029</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>1585029922149515264</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52">
         <v>3395</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>1871</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>0.018</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>1585010816218177550</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53">
         <v>2571</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>1754</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>0.017</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>1584978565233348613</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54">
         <v>4045</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>2559</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>0.025</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>1584970829929992194</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55">
         <v>892</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>706</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>0.007</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>1584952931882831872</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56">
         <v>8753</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>4732</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>0.046</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>1584945382013927426</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57">
         <v>9105</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>4839</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>0.047</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>1584931500700667906</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58">
         <v>6310</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>4189</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>0.041</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>1584898827269672962</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59">
         <v>2789</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>1636</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>0.016</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>1584893974975750146</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60">
         <v>1088</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>791</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>0.008</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>1584723924830617603</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61">
         <v>7883</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>4110</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>0.04</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>1584717729113710597</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62">
         <v>11816</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>2098</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>0.02</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>1584663118130683904</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63">
         <v>3418</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>1115</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>0.011</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>1584657735718604800</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64">
         <v>916</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>496</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>0.005</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>1584645909345976326</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65">
         <v>5858</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>3873</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>0.038</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>1584635840818515974</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66">
         <v>5176</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>3139</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>0.031</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>1584620744624979969</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67">
         <v>8358</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>4582</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>0.045</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>1584613701176463382</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68">
         <v>4215</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>2920</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>0.028</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>1584602542239105025</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69">
         <v>2429</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>1868</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>0.018</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>1584333868878135296</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70">
         <v>14696</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>5282</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>0.051</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>